--- a/gasUP requirements/Use Case Detailed Descriptions GasUP.xlsx
+++ b/gasUP requirements/Use Case Detailed Descriptions GasUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brana\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagedrewke/Documents/GitHub/team-1-project/gasUP requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71F50C0A-1938-4510-8D62-9054F789A5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC496B0-5CEC-8348-8850-C70391261F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33375" yWindow="1320" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gas Station Info" sheetId="1" r:id="rId1"/>
@@ -873,17 +873,17 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" customWidth="1"/>
-    <col min="3" max="3" width="73.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.1640625" customWidth="1"/>
+    <col min="3" max="3" width="73.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -891,7 +891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -899,7 +899,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -907,7 +907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -915,7 +915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -923,7 +923,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -931,7 +931,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -939,7 +939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -950,7 +950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -961,7 +961,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -972,7 +972,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -983,7 +983,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -994,12 +994,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.1000000000000001</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.2</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2.1</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3.1</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4.0999999999999996</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4.2</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4.3</v>
       </c>
@@ -1068,14 +1068,14 @@
       <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.1640625" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1216,12 +1216,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.1000000000000001</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.2</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2.1</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3.1</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3.2</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3.3</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4.0999999999999996</v>
       </c>
@@ -1277,7 +1277,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4.2</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4.3</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4.4000000000000004</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5.0999999999999996</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5.2</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6.1</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>7.1</v>
       </c>
@@ -1343,17 +1343,17 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:B18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.6640625" customWidth="1"/>
     <col min="3" max="3" width="75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1464,12 +1464,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.1000000000000001</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.2</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2.1</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3.1</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3.2</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3.3</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4.0999999999999996</v>
       </c>
@@ -1538,14 +1538,14 @@
       <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" customWidth="1"/>
-    <col min="3" max="3" width="74.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.1640625" customWidth="1"/>
+    <col min="3" max="3" width="74.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1689,12 +1689,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.1000000000000001</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.2</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2.1</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3.1</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4.0999999999999996</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4.2</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>6.1</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>7.1</v>
       </c>
@@ -1771,14 +1771,14 @@
       <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" customWidth="1"/>
-    <col min="3" max="3" width="79.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.1640625" customWidth="1"/>
+    <col min="3" max="3" width="79.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -1911,12 +1911,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.1000000000000001</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.2</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2.1</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3.1</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4.0999999999999996</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5.0999999999999996</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5.2</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6.1</v>
       </c>
@@ -1993,14 +1993,14 @@
       <selection activeCell="A18" sqref="A18:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.83203125" customWidth="1"/>
     <col min="3" max="3" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -2122,12 +2122,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.1000000000000001</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.2</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2.1</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3.1</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4.0999999999999996</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5.0999999999999996</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5.2</v>
       </c>
@@ -2193,17 +2193,17 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B28"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" customWidth="1"/>
-    <col min="3" max="3" width="64.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.1640625" customWidth="1"/>
+    <col min="3" max="3" width="64.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2243,12 +2243,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7</v>
       </c>
@@ -2341,12 +2341,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.1000000000000001</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.2</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2.1</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3.1</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4.0999999999999996</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4.2</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4.3</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>6.1</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>7.1</v>
       </c>
@@ -2431,14 +2431,14 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.1640625" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7</v>
       </c>
@@ -2576,17 +2576,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.1000000000000001</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.2</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2.1</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3.1</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4.0999999999999996</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5.0999999999999996</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6.1</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7.1</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>7.2</v>
       </c>
